--- a/Info.xlsx
+++ b/Info.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Gadgets\Philips PM2528 DMM\Schematics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Gadgets\Philips PM2528 DMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3386CE94-8998-4FE6-9559-8FCAD824039A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409ED6A8-00F8-4911-9B07-C9018EF8FCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-390" yWindow="3705" windowWidth="29970" windowHeight="17340" activeTab="1" xr2:uid="{1BACE0FD-08C6-41B4-8CD8-ADA47AB22099}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{1BACE0FD-08C6-41B4-8CD8-ADA47AB22099}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="N23-Ranges" sheetId="2" r:id="rId2"/>
+    <sheet name="MainBoard-Relais" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="122">
   <si>
     <t>Pin</t>
   </si>
@@ -385,13 +386,31 @@
   </si>
   <si>
     <t>1pA</t>
+  </si>
+  <si>
+    <t>200mV</t>
+  </si>
+  <si>
+    <t>2V</t>
+  </si>
+  <si>
+    <t>20V</t>
+  </si>
+  <si>
+    <t>200V</t>
+  </si>
+  <si>
+    <t>2000V</t>
+  </si>
+  <si>
+    <t>VDC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +435,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -448,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -468,6 +495,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C98CD3F-5F74-4E13-AD64-0C1C70D014E9}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,28 +1946,28 @@
       <c r="B14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="C14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1951,19 +1984,19 @@
       <c r="E15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="F15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>96</v>
       </c>
       <c r="K15" s="7"/>
@@ -1974,4 +2007,288 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13E4AE5-51C0-4E59-B711-92BE55C33E5F}">
+  <dimension ref="A2:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1202</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>1203</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1204</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>1301</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>1302</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>1303</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>1306</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
+        <v>1609</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Info.xlsx
+++ b/Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Gadgets\Philips PM2528 DMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409ED6A8-00F8-4911-9B07-C9018EF8FCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F31B831-6E69-49D2-AC56-A14402606FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{1BACE0FD-08C6-41B4-8CD8-ADA47AB22099}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1BACE0FD-08C6-41B4-8CD8-ADA47AB22099}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="122">
   <si>
     <t>Pin</t>
   </si>
@@ -391,9 +391,6 @@
     <t>200mV</t>
   </si>
   <si>
-    <t>2V</t>
-  </si>
-  <si>
     <t>20V</t>
   </si>
   <si>
@@ -404,6 +401,9 @@
   </si>
   <si>
     <t>VDC</t>
+  </si>
+  <si>
+    <t>2000mV</t>
   </si>
 </sst>
 </file>
@@ -493,14 +493,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1628,16 +1628,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="L2" s="6" t="s">
         <v>104</v>
       </c>
@@ -2014,7 +2014,7 @@
   <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,37 +2023,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2239,18 +2239,63 @@
       <c r="B22" s="3">
         <v>1606</v>
       </c>
+      <c r="C22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>1607</v>
       </c>
+      <c r="C23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
         <v>1608</v>
       </c>
+      <c r="C24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -2277,6 +2322,21 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>1610</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/Info.xlsx
+++ b/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Gadgets\Philips PM2528 DMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F31B831-6E69-49D2-AC56-A14402606FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E629BE62-6F02-459A-A690-D8930BE9C8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1BACE0FD-08C6-41B4-8CD8-ADA47AB22099}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{1BACE0FD-08C6-41B4-8CD8-ADA47AB22099}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="135">
   <si>
     <t>Pin</t>
   </si>
@@ -404,6 +404,45 @@
   </si>
   <si>
     <t>2000mV</t>
+  </si>
+  <si>
+    <t>VAC (ac ac/dc)</t>
+  </si>
+  <si>
+    <t>Relais/Range</t>
+  </si>
+  <si>
+    <t>N25 (RMS)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R (+2w)</t>
+  </si>
+  <si>
+    <t>2uA</t>
+  </si>
+  <si>
+    <t>20uA</t>
+  </si>
+  <si>
+    <t>200uA</t>
+  </si>
+  <si>
+    <t>2000uA</t>
+  </si>
+  <si>
+    <t>20mA</t>
+  </si>
+  <si>
+    <t>200mA</t>
+  </si>
+  <si>
+    <t>2000mA</t>
+  </si>
+  <si>
+    <t>A (DC/AC)</t>
   </si>
 </sst>
 </file>
@@ -449,7 +488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -502,6 +547,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2011,18 +2057,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13E4AE5-51C0-4E59-B711-92BE55C33E5F}">
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:AE27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" style="12" customWidth="1"/>
+    <col min="23" max="23" width="2.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="11" t="s">
         <v>120</v>
       </c>
@@ -2030,10 +2082,38 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="O2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="X2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>116</v>
@@ -2050,17 +2130,92 @@
       <c r="G3" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>1202</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>95</v>
@@ -2068,20 +2223,20 @@
       <c r="D5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>95</v>
+      <c r="E5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>95</v>
@@ -2092,38 +2247,28 @@
       <c r="E6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
-        <v>1204</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2131,113 +2276,123 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
-        <v>1302</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
-        <v>1303</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1306</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
-        <v>1306</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1606</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>95</v>
@@ -2255,10 +2410,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>95</v>
@@ -2276,10 +2431,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>95</v>
@@ -2297,10 +2452,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>95</v>
@@ -2318,36 +2473,100 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3">
-        <v>1610</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2515</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE27" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="X2:AD2"/>
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Info.xlsx
+++ b/Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Gadgets\Philips PM2528 DMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7E0D75-57BE-4809-83DD-26598EC49733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709CB62A-F4B8-4992-B53E-83BA69EA925E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1BACE0FD-08C6-41B4-8CD8-ADA47AB22099}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MainBoard-Relais" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'MainBoard-Relais'!$A$1:$AT$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'MainBoard-Relais'!$A$1:$AZ$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'MainBoard-Relais'!$A:$B,'MainBoard-Relais'!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="49">
   <si>
     <t>N23 (Current source)</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Voltage (DC)</t>
   </si>
   <si>
-    <t>Voltage (AC AC/DC)</t>
-  </si>
-  <si>
     <t>Resistance (2w)</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
   </si>
   <si>
     <t>Current (DC)</t>
-  </si>
-  <si>
-    <t>Current (AC)</t>
   </si>
   <si>
     <t>200 °C</t>
@@ -170,12 +164,36 @@
   <si>
     <t>2000µA</t>
   </si>
+  <si>
+    <t>Voltage (AC)</t>
+  </si>
+  <si>
+    <t>Voltage (AC+DC)</t>
+  </si>
+  <si>
+    <t>Vhf</t>
+  </si>
+  <si>
+    <t>VDC_2000V</t>
+  </si>
+  <si>
+    <t>VDC_200V</t>
+  </si>
+  <si>
+    <t>VDC_20V</t>
+  </si>
+  <si>
+    <t>VDC_200mV-2000mV</t>
+  </si>
+  <si>
+    <t>Current (AC+DC)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +219,14 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -297,7 +323,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -312,8 +337,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,128 +662,107 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT53"/>
+  <dimension ref="A1:AZ57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE32" sqref="AE32"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="10"/>
-    <col min="8" max="8" width="1.28515625" style="10" customWidth="1"/>
-    <col min="9" max="13" width="9.140625" style="10"/>
-    <col min="14" max="14" width="1.28515625" style="10" customWidth="1"/>
-    <col min="15" max="22" width="9.140625" style="10"/>
-    <col min="23" max="23" width="1.28515625" style="10" customWidth="1"/>
-    <col min="24" max="28" width="9.140625" style="10"/>
-    <col min="29" max="29" width="1.28515625" style="10" customWidth="1"/>
-    <col min="30" max="32" width="9.140625" style="10"/>
-    <col min="37" max="37" width="1.28515625" style="10" customWidth="1"/>
-    <col min="38" max="40" width="9.140625" style="10"/>
-    <col min="45" max="45" width="1.28515625" customWidth="1"/>
+    <col min="8" max="8" width="1.28515625" customWidth="1"/>
+    <col min="14" max="14" width="1.28515625" customWidth="1"/>
+    <col min="20" max="20" width="1.28515625" customWidth="1"/>
+    <col min="29" max="29" width="1.28515625" customWidth="1"/>
+    <col min="35" max="35" width="1.28515625" customWidth="1"/>
+    <col min="43" max="43" width="1.28515625" customWidth="1"/>
+    <col min="51" max="51" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="G1"/>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="H1" s="3"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
       <c r="N1" s="3"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1" s="3"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
+      <c r="T1" s="3"/>
       <c r="AC1" s="3"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1"/>
-      <c r="AM1"/>
-      <c r="AN1"/>
-      <c r="AS1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AY1" s="3"/>
     </row>
-    <row r="2" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4" t="s">
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="4" t="s">
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" t="s">
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -789,68 +798,68 @@
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AD3" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AI3" s="3"/>
       <c r="AJ3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK3" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="AL3" s="2" t="s">
         <v>39</v>
       </c>
@@ -858,244 +867,195 @@
         <v>40</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AP3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="2" t="s">
-        <v>38</v>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16" t="s">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="V4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="W4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="X4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="Y4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="Z4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="AA4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="AB4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="16" t="s">
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="AE4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="AF4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AG4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AH4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
       <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="15"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="14"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="17"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="18"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="5">
         <v>1202</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="3"/>
-      <c r="X5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5">
-        <v>1203</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="3"/>
@@ -1130,16 +1090,16 @@
       <c r="S6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T6" s="3"/>
       <c r="U6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="3"/>
+      <c r="W6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1171,13 +1131,13 @@
       <c r="AH6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI6" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AI6" s="3"/>
       <c r="AJ6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK6" s="3"/>
+      <c r="AK6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AL6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1193,21 +1153,39 @@
       <c r="AP6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ6" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AQ6" s="3"/>
       <c r="AR6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="17" t="s">
+      <c r="AS6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="B7" s="5">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
@@ -1218,11 +1196,11 @@
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>10</v>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="7" t="s">
@@ -1256,16 +1234,16 @@
       <c r="S7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T7" s="3"/>
       <c r="U7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="3"/>
+      <c r="W7" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1297,13 +1275,13 @@
       <c r="AH7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI7" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AI7" s="3"/>
       <c r="AJ7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK7" s="3"/>
+      <c r="AK7" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AL7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1319,19 +1297,39 @@
       <c r="AP7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ7" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AQ7" s="3"/>
       <c r="AR7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="9"/>
+      <c r="AS7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="B8" s="5">
-        <v>1301</v>
+        <v>1204</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
@@ -1345,8 +1343,8 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>9</v>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="7" t="s">
@@ -1380,30 +1378,30 @@
       <c r="S8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T8" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T8" s="3"/>
       <c r="U8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB8" s="8" t="s">
-        <v>10</v>
+      <c r="W8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="7" t="s">
@@ -1421,13 +1419,13 @@
       <c r="AH8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI8" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AI8" s="3"/>
       <c r="AJ8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK8" s="3"/>
+      <c r="AK8" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AL8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1443,203 +1441,243 @@
       <c r="AP8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ8" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AQ8" s="3"/>
       <c r="AR8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="AS8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="9"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
       <c r="B9" s="5">
+        <v>1301</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5">
         <v>1302</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="9"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5">
         <v>1303</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5">
-        <v>1304</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
@@ -1667,31 +1705,31 @@
         <v>9</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="O11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="3"/>
       <c r="U11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="V11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="W11" s="3"/>
+      <c r="W11" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="X11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1708,28 +1746,28 @@
         <v>10</v>
       </c>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI11" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AD11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="3"/>
       <c r="AJ11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK11" s="3"/>
+      <c r="AK11" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AL11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1745,21 +1783,37 @@
       <c r="AP11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ11" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AQ11" s="3"/>
       <c r="AR11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="8" t="s">
+      <c r="AS11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
       <c r="B12" s="5">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>9</v>
@@ -1793,31 +1847,31 @@
         <v>9</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="O12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="3"/>
       <c r="U12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="W12" s="3"/>
+      <c r="W12" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="X12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1834,28 +1888,28 @@
         <v>10</v>
       </c>
       <c r="AC12" s="3"/>
-      <c r="AD12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI12" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AD12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI12" s="3"/>
       <c r="AJ12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK12" s="3"/>
+      <c r="AK12" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AL12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1871,21 +1925,37 @@
       <c r="AP12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ12" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AQ12" s="3"/>
       <c r="AR12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="8" t="s">
+      <c r="AS12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
       <c r="B13" s="5">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -1934,16 +2004,16 @@
       <c r="S13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="X13" s="8" t="s">
         <v>10</v>
       </c>
@@ -1960,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AC13" s="3"/>
-      <c r="AD13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI13" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AD13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI13" s="3"/>
       <c r="AJ13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK13" s="3"/>
+      <c r="AK13" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AL13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1997,21 +2067,37 @@
       <c r="AP13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ13" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AQ13" s="3"/>
       <c r="AR13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="8" t="s">
+      <c r="AS13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
       <c r="B14" s="5">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
@@ -2060,54 +2146,54 @@
       <c r="S14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T14" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T14" s="3"/>
       <c r="U14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W14" s="3"/>
-      <c r="X14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB14" s="8" t="s">
-        <v>10</v>
+      <c r="W14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AC14" s="3"/>
-      <c r="AD14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI14" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AD14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI14" s="3"/>
       <c r="AJ14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK14" s="3"/>
+      <c r="AK14" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AL14" s="7" t="s">
         <v>9</v>
       </c>
@@ -2123,121 +2209,321 @@
       <c r="AP14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ14" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AQ14" s="3"/>
       <c r="AR14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="8" t="s">
+      <c r="AS14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
       <c r="B15" s="5">
+        <v>1307</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="5">
         <v>1401</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="9"/>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="5">
         <v>1402</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="9"/>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5">
-        <v>1403</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>9</v>
@@ -2258,44 +2544,44 @@
       <c r="I17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>10</v>
+      <c r="J17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="O17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="3"/>
       <c r="U17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W17" s="3"/>
+      <c r="W17" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X17" s="7" t="s">
         <v>9</v>
       </c>
@@ -2327,43 +2613,59 @@
       <c r="AH17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI17" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AI17" s="3"/>
       <c r="AJ17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS17" s="3"/>
+      <c r="AK17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS17" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AT17" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="AU17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="5">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>9</v>
@@ -2384,44 +2686,44 @@
       <c r="I18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>9</v>
+      <c r="J18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="P18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="3"/>
       <c r="U18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="3"/>
+      <c r="W18" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X18" s="7" t="s">
         <v>9</v>
       </c>
@@ -2453,13 +2755,13 @@
       <c r="AH18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI18" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AI18" s="3"/>
       <c r="AJ18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK18" s="3"/>
+      <c r="AK18" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AL18" s="7" t="s">
         <v>9</v>
       </c>
@@ -2475,21 +2777,37 @@
       <c r="AP18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="7" t="s">
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
       <c r="B19" s="5">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>9</v>
@@ -2510,11 +2828,11 @@
       <c r="I19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>10</v>
+      <c r="J19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>9</v>
@@ -2526,8 +2844,8 @@
       <c r="O19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>9</v>
+      <c r="P19" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>9</v>
@@ -2538,16 +2856,16 @@
       <c r="S19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T19" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T19" s="3"/>
       <c r="U19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W19" s="3"/>
+      <c r="W19" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X19" s="7" t="s">
         <v>9</v>
       </c>
@@ -2579,43 +2897,59 @@
       <c r="AH19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI19" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AI19" s="3"/>
       <c r="AJ19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO19" s="8" t="s">
-        <v>10</v>
+      <c r="AK19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO19" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AP19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ19" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AQ19" s="3"/>
       <c r="AR19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS19" s="3"/>
+      <c r="AS19" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AT19" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="AU19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="5">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>9</v>
@@ -2639,8 +2973,8 @@
       <c r="J20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>9</v>
+      <c r="K20" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>9</v>
@@ -2655,8 +2989,8 @@
       <c r="P20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="7" t="s">
-        <v>9</v>
+      <c r="Q20" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="R20" s="7" t="s">
         <v>9</v>
@@ -2664,16 +2998,16 @@
       <c r="S20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T20" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T20" s="3"/>
       <c r="U20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W20" s="3"/>
+      <c r="W20" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X20" s="7" t="s">
         <v>9</v>
       </c>
@@ -2705,13 +3039,13 @@
       <c r="AH20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI20" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AI20" s="3"/>
       <c r="AJ20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK20" s="3"/>
+      <c r="AK20" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AL20" s="7" t="s">
         <v>9</v>
       </c>
@@ -2727,171 +3061,459 @@
       <c r="AP20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="7" t="s">
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
       <c r="B21" s="5">
+        <v>1406</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="5">
         <v>1601</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="9"/>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="9"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="5">
         <v>1602</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="9"/>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="9"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="5">
         <v>1603</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="9"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5">
-        <v>1604</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>9</v>
@@ -2940,16 +3562,16 @@
       <c r="S24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T24" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T24" s="3"/>
       <c r="U24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W24" s="3"/>
+      <c r="W24" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X24" s="7" t="s">
         <v>9</v>
       </c>
@@ -2978,16 +3600,16 @@
       <c r="AG24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AH24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK24" s="3"/>
+      <c r="AH24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK24" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AL24" s="7" t="s">
         <v>9</v>
       </c>
@@ -3000,24 +3622,38 @@
       <c r="AO24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AP24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS24" s="3"/>
+      <c r="AP24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS24" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AT24" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="AU24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="9"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
       <c r="B25" s="5">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>9</v>
@@ -3066,16 +3702,16 @@
       <c r="S25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T25" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T25" s="3"/>
       <c r="U25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W25" s="3"/>
+      <c r="W25" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X25" s="7" t="s">
         <v>9</v>
       </c>
@@ -3092,33 +3728,33 @@
         <v>9</v>
       </c>
       <c r="AC25" s="3"/>
-      <c r="AD25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG25" s="8" t="s">
-        <v>10</v>
+      <c r="AD25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG25" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AH25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI25" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AI25" s="3"/>
       <c r="AJ25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM25" s="8" t="s">
-        <v>10</v>
+      <c r="AK25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM25" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AN25" s="8" t="s">
         <v>10</v>
@@ -3126,24 +3762,40 @@
       <c r="AO25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AP25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ25" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AP25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ25" s="3"/>
       <c r="AR25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS25" s="3"/>
+      <c r="AS25" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AT25" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="AU25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
       <c r="B26" s="5">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>9</v>
@@ -3192,16 +3844,16 @@
       <c r="S26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T26" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T26" s="3"/>
       <c r="U26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W26" s="3"/>
+      <c r="W26" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X26" s="7" t="s">
         <v>9</v>
       </c>
@@ -3227,49 +3879,65 @@
       <c r="AF26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AG26" s="8" t="s">
-        <v>10</v>
+      <c r="AG26" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AH26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM26" s="7" t="s">
-        <v>9</v>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM26" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="AN26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AO26" s="8" t="s">
-        <v>10</v>
+      <c r="AO26" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AP26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="7" t="s">
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
       <c r="B27" s="5">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>9</v>
@@ -3318,16 +3986,16 @@
       <c r="S27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T27" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T27" s="3"/>
       <c r="U27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W27" s="3"/>
+      <c r="W27" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X27" s="7" t="s">
         <v>9</v>
       </c>
@@ -3350,8 +4018,8 @@
       <c r="AE27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AF27" s="8" t="s">
-        <v>10</v>
+      <c r="AF27" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AG27" s="7" t="s">
         <v>9</v>
@@ -3359,21 +4027,21 @@
       <c r="AH27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI27" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AI27" s="3"/>
       <c r="AJ27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK27" s="3"/>
+      <c r="AK27" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AL27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AM27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN27" s="8" t="s">
-        <v>10</v>
+      <c r="AM27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN27" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AO27" s="7" t="s">
         <v>9</v>
@@ -3381,21 +4049,37 @@
       <c r="AP27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ27" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AQ27" s="3"/>
       <c r="AR27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS27" s="3"/>
+      <c r="AS27" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AT27" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="AU27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
       <c r="B28" s="5">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>9</v>
@@ -3444,16 +4128,16 @@
       <c r="S28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T28" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T28" s="3"/>
       <c r="U28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W28" s="3"/>
+      <c r="W28" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X28" s="7" t="s">
         <v>9</v>
       </c>
@@ -3473,8 +4157,8 @@
       <c r="AD28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="8" t="s">
-        <v>10</v>
+      <c r="AE28" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AF28" s="7" t="s">
         <v>9</v>
@@ -3485,18 +4169,18 @@
       <c r="AH28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI28" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AI28" s="3"/>
       <c r="AJ28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM28" s="8" t="s">
-        <v>10</v>
+      <c r="AK28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM28" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AN28" s="7" t="s">
         <v>9</v>
@@ -3507,21 +4191,37 @@
       <c r="AP28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ28" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AQ28" s="3"/>
       <c r="AR28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="7" t="s">
+      <c r="AS28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
       <c r="B29" s="5">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>9</v>
@@ -3570,16 +4270,16 @@
       <c r="S29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T29" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T29" s="3"/>
       <c r="U29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W29" s="3"/>
+      <c r="W29" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X29" s="7" t="s">
         <v>9</v>
       </c>
@@ -3611,13 +4311,13 @@
       <c r="AH29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI29" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AI29" s="3"/>
       <c r="AJ29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK29" s="3"/>
+      <c r="AK29" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="AL29" s="7" t="s">
         <v>9</v>
       </c>
@@ -3633,21 +4333,37 @@
       <c r="AP29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ29" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AQ29" s="3"/>
       <c r="AR29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS29" s="3"/>
+      <c r="AS29" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="AT29" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="AU29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
       <c r="B30" s="5">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>9</v>
@@ -3696,16 +4412,16 @@
       <c r="S30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T30" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="T30" s="3"/>
       <c r="U30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W30" s="3"/>
+      <c r="W30" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X30" s="7" t="s">
         <v>9</v>
       </c>
@@ -3722,8 +4438,8 @@
         <v>9</v>
       </c>
       <c r="AC30" s="3"/>
-      <c r="AD30" s="8" t="s">
-        <v>10</v>
+      <c r="AD30" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AE30" s="7" t="s">
         <v>9</v>
@@ -3737,94 +4453,200 @@
       <c r="AH30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI30" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="AI30" s="3"/>
       <c r="AJ30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS30" s="3"/>
+      <c r="AK30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS30" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AT30" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="AU30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="5">
+        <v>1610</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="I31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="N31" s="3"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
+      <c r="O31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB31" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="9"/>
-      <c r="AM31" s="9"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="9"/>
-      <c r="AP31" s="9"/>
-      <c r="AQ31" s="9"/>
-      <c r="AR31" s="9"/>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="9"/>
+      <c r="AD31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5">
-        <v>2201</v>
-      </c>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -3842,10 +4664,10 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
+      <c r="T32" s="3"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
-      <c r="W32" s="3"/>
+      <c r="W32" s="9"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -3857,24 +4679,30 @@
       <c r="AF32" s="9"/>
       <c r="AG32" s="9"/>
       <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
+      <c r="AI32" s="3"/>
       <c r="AJ32" s="9"/>
-      <c r="AK32" s="3"/>
+      <c r="AK32" s="9"/>
       <c r="AL32" s="9"/>
       <c r="AM32" s="9"/>
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
       <c r="AP32" s="9"/>
-      <c r="AQ32" s="9"/>
+      <c r="AQ32" s="3"/>
       <c r="AR32" s="9"/>
-      <c r="AS32" s="3"/>
+      <c r="AS32" s="9"/>
       <c r="AT32" s="9"/>
+      <c r="AU32" s="9"/>
+      <c r="AV32" s="9"/>
+      <c r="AW32" s="9"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="9"/>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5">
-        <v>2202</v>
-      </c>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -3892,10 +4720,10 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
+      <c r="T33" s="3"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
-      <c r="W33" s="3"/>
+      <c r="W33" s="9"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -3907,21 +4735,30 @@
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
+      <c r="AI33" s="3"/>
       <c r="AJ33" s="9"/>
-      <c r="AK33" s="3"/>
+      <c r="AK33" s="9"/>
       <c r="AL33" s="9"/>
       <c r="AM33" s="9"/>
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
+      <c r="AQ33" s="3"/>
       <c r="AR33" s="9"/>
-      <c r="AS33" s="3"/>
+      <c r="AS33" s="9"/>
       <c r="AT33" s="9"/>
+      <c r="AU33" s="9"/>
+      <c r="AV33" s="9"/>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="9"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="5">
+        <v>2201</v>
+      </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -3939,10 +4776,10 @@
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
+      <c r="T34" s="3"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
-      <c r="W34" s="3"/>
+      <c r="W34" s="9"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -3954,25 +4791,29 @@
       <c r="AF34" s="9"/>
       <c r="AG34" s="9"/>
       <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
+      <c r="AI34" s="3"/>
       <c r="AJ34" s="9"/>
-      <c r="AK34" s="3"/>
+      <c r="AK34" s="9"/>
       <c r="AL34" s="9"/>
       <c r="AM34" s="9"/>
       <c r="AN34" s="9"/>
       <c r="AO34" s="9"/>
       <c r="AP34" s="9"/>
-      <c r="AQ34" s="9"/>
+      <c r="AQ34" s="3"/>
       <c r="AR34" s="9"/>
-      <c r="AS34" s="3"/>
+      <c r="AS34" s="9"/>
       <c r="AT34" s="9"/>
+      <c r="AU34" s="9"/>
+      <c r="AV34" s="9"/>
+      <c r="AW34" s="9"/>
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="9"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
       <c r="B35" s="5">
-        <v>2301</v>
+        <v>2202</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -3986,70 +4827,47 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W35" s="3"/>
-      <c r="X35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB35" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9"/>
       <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
+      <c r="AI35" s="3"/>
       <c r="AJ35" s="9"/>
-      <c r="AK35" s="3"/>
+      <c r="AK35" s="9"/>
       <c r="AL35" s="9"/>
       <c r="AM35" s="9"/>
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
       <c r="AP35" s="9"/>
-      <c r="AQ35" s="9"/>
+      <c r="AQ35" s="3"/>
       <c r="AR35" s="9"/>
-      <c r="AS35" s="3"/>
+      <c r="AS35" s="9"/>
       <c r="AT35" s="9"/>
+      <c r="AU35" s="9"/>
+      <c r="AV35" s="9"/>
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="9"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="9"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="5">
-        <v>2302</v>
-      </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -4062,69 +4880,48 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W36" s="3"/>
-      <c r="X36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB36" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
       <c r="AF36" s="9"/>
       <c r="AG36" s="9"/>
       <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
+      <c r="AI36" s="3"/>
       <c r="AJ36" s="9"/>
-      <c r="AK36" s="3"/>
+      <c r="AK36" s="9"/>
       <c r="AL36" s="9"/>
       <c r="AM36" s="9"/>
       <c r="AN36" s="9"/>
       <c r="AO36" s="9"/>
       <c r="AP36" s="9"/>
-      <c r="AQ36" s="9"/>
+      <c r="AQ36" s="3"/>
       <c r="AR36" s="9"/>
-      <c r="AS36" s="3"/>
+      <c r="AS36" s="9"/>
       <c r="AT36" s="9"/>
+      <c r="AU36" s="9"/>
+      <c r="AV36" s="9"/>
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="9"/>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5">
-        <v>2303</v>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -4138,69 +4935,49 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="U37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="V37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W37" s="3"/>
-      <c r="X37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB37" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
+      <c r="AI37" s="3"/>
       <c r="AJ37" s="9"/>
-      <c r="AK37" s="3"/>
+      <c r="AK37" s="9"/>
       <c r="AL37" s="9"/>
       <c r="AM37" s="9"/>
       <c r="AN37" s="9"/>
       <c r="AO37" s="9"/>
       <c r="AP37" s="9"/>
-      <c r="AQ37" s="9"/>
+      <c r="AQ37" s="3"/>
       <c r="AR37" s="9"/>
-      <c r="AS37" s="3"/>
+      <c r="AS37" s="9"/>
       <c r="AT37" s="9"/>
+      <c r="AU37" s="9"/>
+      <c r="AV37" s="9"/>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="9"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="9"/>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
       <c r="B38" s="5">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -4214,31 +4991,21 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W38" s="3"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X38" s="7" t="s">
         <v>9</v>
       </c>
@@ -4248,35 +5015,51 @@
       <c r="Z38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AA38" s="8" t="s">
-        <v>10</v>
+      <c r="AA38" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AB38" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AC38" s="3"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
+      <c r="AD38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI38" s="3"/>
       <c r="AJ38" s="9"/>
-      <c r="AK38" s="3"/>
+      <c r="AK38" s="9"/>
       <c r="AL38" s="9"/>
       <c r="AM38" s="9"/>
       <c r="AN38" s="9"/>
       <c r="AO38" s="9"/>
       <c r="AP38" s="9"/>
-      <c r="AQ38" s="9"/>
+      <c r="AQ38" s="3"/>
       <c r="AR38" s="9"/>
-      <c r="AS38" s="3"/>
+      <c r="AS38" s="9"/>
       <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+      <c r="AV38" s="9"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="9"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
       <c r="B39" s="5">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -4290,69 +5073,75 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T39" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="3"/>
       <c r="U39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="V39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W39" s="3"/>
-      <c r="X39" s="8" t="s">
-        <v>10</v>
+      <c r="V39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X39" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="Y39" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Z39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA39" s="8" t="s">
-        <v>10</v>
+      <c r="Z39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AB39" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AC39" s="3"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
+      <c r="AD39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI39" s="3"/>
       <c r="AJ39" s="9"/>
-      <c r="AK39" s="3"/>
+      <c r="AK39" s="9"/>
       <c r="AL39" s="9"/>
       <c r="AM39" s="9"/>
       <c r="AN39" s="9"/>
       <c r="AO39" s="9"/>
       <c r="AP39" s="9"/>
-      <c r="AQ39" s="9"/>
+      <c r="AQ39" s="3"/>
       <c r="AR39" s="9"/>
-      <c r="AS39" s="3"/>
+      <c r="AS39" s="9"/>
       <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="9"/>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
       <c r="B40" s="5">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -4366,69 +5155,75 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="U40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="V40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W40" s="3"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W40" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="X40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="Y40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Z40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB40" s="8" t="s">
-        <v>10</v>
+      <c r="Z40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB40" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="AC40" s="3"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
-      <c r="AG40" s="9"/>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="9"/>
+      <c r="AD40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI40" s="3"/>
       <c r="AJ40" s="9"/>
-      <c r="AK40" s="3"/>
+      <c r="AK40" s="9"/>
       <c r="AL40" s="9"/>
       <c r="AM40" s="9"/>
       <c r="AN40" s="9"/>
       <c r="AO40" s="9"/>
       <c r="AP40" s="9"/>
-      <c r="AQ40" s="9"/>
+      <c r="AQ40" s="3"/>
       <c r="AR40" s="9"/>
-      <c r="AS40" s="3"/>
+      <c r="AS40" s="9"/>
       <c r="AT40" s="9"/>
+      <c r="AU40" s="9"/>
+      <c r="AV40" s="9"/>
+      <c r="AW40" s="9"/>
+      <c r="AX40" s="9"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="9"/>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
       <c r="B41" s="5">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -4442,33 +5237,23 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="3"/>
       <c r="U41" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V41" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W41" s="3"/>
-      <c r="X41" s="7" t="s">
-        <v>9</v>
+      <c r="W41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="Y41" s="7" t="s">
         <v>9</v>
@@ -4483,26 +5268,45 @@
         <v>10</v>
       </c>
       <c r="AC41" s="3"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
+      <c r="AD41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI41" s="3"/>
       <c r="AJ41" s="9"/>
-      <c r="AK41" s="3"/>
+      <c r="AK41" s="9"/>
       <c r="AL41" s="9"/>
       <c r="AM41" s="9"/>
       <c r="AN41" s="9"/>
       <c r="AO41" s="9"/>
       <c r="AP41" s="9"/>
-      <c r="AQ41" s="9"/>
+      <c r="AQ41" s="3"/>
       <c r="AR41" s="9"/>
-      <c r="AS41" s="3"/>
+      <c r="AS41" s="9"/>
       <c r="AT41" s="9"/>
+      <c r="AU41" s="9"/>
+      <c r="AV41" s="9"/>
+      <c r="AW41" s="9"/>
+      <c r="AX41" s="9"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="9"/>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="5">
+        <v>2305</v>
+      </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -4520,112 +5324,112 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB42" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AC42" s="3"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="9"/>
+      <c r="AD42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI42" s="3"/>
       <c r="AJ42" s="9"/>
-      <c r="AK42" s="3"/>
+      <c r="AK42" s="9"/>
       <c r="AL42" s="9"/>
       <c r="AM42" s="9"/>
       <c r="AN42" s="9"/>
       <c r="AO42" s="9"/>
       <c r="AP42" s="9"/>
-      <c r="AQ42" s="9"/>
+      <c r="AQ42" s="3"/>
       <c r="AR42" s="9"/>
-      <c r="AS42" s="3"/>
+      <c r="AS42" s="9"/>
       <c r="AT42" s="9"/>
+      <c r="AU42" s="9"/>
+      <c r="AV42" s="9"/>
+      <c r="AW42" s="9"/>
+      <c r="AX42" s="9"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="9"/>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
       <c r="B43" s="5">
-        <v>2515</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>2306</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T43" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="3"/>
       <c r="U43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W43" s="3"/>
+      <c r="W43" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="X43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Y43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB43" s="7" t="s">
-        <v>9</v>
+      <c r="Y43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB43" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="AC43" s="3"/>
       <c r="AD43" s="7" t="s">
@@ -4640,85 +5444,404 @@
       <c r="AG43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AH43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK43" s="3"/>
-      <c r="AL43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS43" s="3"/>
+      <c r="AH43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="9"/>
+      <c r="AK43" s="9"/>
+      <c r="AL43" s="9"/>
+      <c r="AM43" s="9"/>
+      <c r="AN43" s="9"/>
+      <c r="AO43" s="9"/>
+      <c r="AP43" s="9"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="9"/>
+      <c r="AS43" s="9"/>
       <c r="AT43" s="9"/>
+      <c r="AU43" s="9"/>
+      <c r="AV43" s="9"/>
+      <c r="AW43" s="9"/>
+      <c r="AX43" s="9"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="9"/>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="6"/>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="5">
+        <v>2307</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="9"/>
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9"/>
+      <c r="AM44" s="9"/>
+      <c r="AN44" s="9"/>
+      <c r="AO44" s="9"/>
+      <c r="AP44" s="9"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="9"/>
+      <c r="AS44" s="9"/>
+      <c r="AT44" s="9"/>
+      <c r="AU44" s="9"/>
+      <c r="AV44" s="9"/>
+      <c r="AW44" s="9"/>
+      <c r="AX44" s="9"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="9"/>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="9"/>
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="9"/>
+      <c r="AM45" s="9"/>
+      <c r="AN45" s="9"/>
+      <c r="AO45" s="9"/>
+      <c r="AP45" s="9"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="9"/>
+      <c r="AS45" s="9"/>
+      <c r="AT45" s="9"/>
+      <c r="AU45" s="9"/>
+      <c r="AV45" s="9"/>
+      <c r="AW45" s="9"/>
+      <c r="AX45" s="9"/>
+      <c r="AY45" s="3"/>
+      <c r="AZ45" s="9"/>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9"/>
+      <c r="AM46" s="9"/>
+      <c r="AN46" s="9"/>
+      <c r="AO46" s="9"/>
+      <c r="AP46" s="9"/>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="9"/>
+      <c r="AS46" s="9"/>
+      <c r="AT46" s="9"/>
+      <c r="AU46" s="9"/>
+      <c r="AV46" s="9"/>
+      <c r="AW46" s="9"/>
+      <c r="AX46" s="9"/>
+      <c r="AY46" s="3"/>
+      <c r="AZ46" s="9"/>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="5">
+        <v>2515</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47" s="3"/>
+      <c r="U47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="9"/>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="19"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="19"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="19"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="19"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="19"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AL2:AR2"/>
-    <mergeCell ref="AD2:AJ2"/>
+  <mergeCells count="7">
+    <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="AJ2:AP2"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="U2:AB2"/>
+    <mergeCell ref="O2:S2"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="74" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="14" max="1048575" man="1"/>
-    <brk id="29" max="1048575" man="1"/>
+    <brk id="20" max="1048575" man="1"/>
+    <brk id="35" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>